--- a/フレームワーク構成.xlsx
+++ b/フレームワーク構成.xlsx
@@ -321,19 +321,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・jp.co.drm.base.integration.mybatis.entity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・jp.co.drm.web.integration.mybatis.dto</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・jp.co.drm.batch.integration.mybatis.dto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・jp.co.drm.base.integration.mybatis.sqlmap</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -363,6 +355,14 @@
   </si>
   <si>
     <t>・jp.co.drm.batch.integration.mybatis.sqlmap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・jp.co.drm.base.integration.mybatis.entity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・jp.co.drm.base.integration.mybatis.sqlmap</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -453,13 +453,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -467,11 +461,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:CH62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="BL73" sqref="BL73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.875" defaultRowHeight="13.5"/>
@@ -993,7 +993,7 @@
     </row>
     <row r="46" spans="1:40">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN46" t="s">
         <v>6</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="47" spans="1:40">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AN47" t="s">
         <v>7</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="48" spans="1:40">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AN48" t="s">
         <v>8</v>
@@ -1017,26 +1017,26 @@
     </row>
     <row r="50" spans="1:40">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AN50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:40">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AN51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:40">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AN52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:40">
@@ -1144,95 +1144,102 @@
         <v>29</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="54">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="40.5">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="81">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
@@ -1240,13 +1247,6 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -1262,7 +1262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
